--- a/data/long_razon/P24_9-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_9-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>529,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-33,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-15,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>69,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,11; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-86,88; 92,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-57,87; 62,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-50,81; 101,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 136,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 94,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 235,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-63,84; 70,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-40,25; 43,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>175,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>75,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>49,08; 417,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 113,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 122,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 112,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 57,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 67,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,21; 150,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 68,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 73,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>105,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-25,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>33,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 308,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-56,16; 32,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 79,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 61,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 113,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 39,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 114,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,22; 43,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 33,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>171,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>62,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,43; 339,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,79; 29,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 61,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 56,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 57,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 34,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,68; 108,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 33,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 34,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_9-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_9-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,269 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.9938881151882974</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1702375968023149</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.4713302136731311</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1.026484003626911</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.5737550084486651</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.115423381095239</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.875595442772974</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>1.682883900550142</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.7052850206653355</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.009621698920487339</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.6919308265619528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="n">
+        <v>-0.3066972000335544</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.6091071823804061</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4040795807875734</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.3771433887676595</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2665545619333024</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3565072509567809</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.02273090629157852</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.01530815817967715</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.1137010692331041</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.3612279768525369</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.07311188030406791</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="n">
+        <v>5.426351560951302</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.5638145409826234</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.501101311632274</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.931875406943164</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.386293861624807</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.935731627099729</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>2.60167077978311</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>5.926225488300262</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>2.140632023985685</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.4894841055679229</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.913660895827774</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.020870482166124</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.5045173122157736</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.3963310667685361</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.4494338560365037</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.2557767803834779</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.03822334916361736</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.1357201966817001</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.9566667879806287</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.8712619510744514</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.2595405926354794</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.2709192946834993</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.6857135532900007</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.7211314045291767</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2225913982348263</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2086808358754679</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1226982358406676</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3264762792236491</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.3937152549553409</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2426910604661206</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.2445422286367455</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.05914855296154056</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.1296671951978337</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.1159437898312797</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.1850652646840899</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.72765619252596</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.186554794575449</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.392655015355503</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.588049335633627</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.303290789823484</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.6314334821071672</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.7317419682950942</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>2.176631716752852</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>2.278486203605824</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.032864393583405</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.8320376033738526</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.414519304991888</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +929,284 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.7632832254938479</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1714571323680572</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1074383985978705</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.6403970904847552</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.154870010862878</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.4592123827476627</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.008241792853264989</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.7317984885217299</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.4103016125947373</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.09733847688441082</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.03790718636136155</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.687227669942916</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.4448172195649289</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5246395786223782</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3316318033276201</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.05615506101483967</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.3433612916912351</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.07594128018475223</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3351144180618812</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.04715924942796897</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.1891428394057164</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2404249605339094</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.2165663710675235</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.1800962163568833</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.030856601856593</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.5037411459598197</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.6992826816977749</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.713696413675459</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.9673656933689164</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.504319794266185</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.4118102123810042</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.676716414159685</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>1.237859677206952</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.6518295315986085</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.3726072553863178</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.33338847709381</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.697355855251853</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.2205948814229259</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1809746291343562</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.5252215085939212</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3349335905227492</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2855059984324986</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.07540004591413564</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.8489673579900813</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.735775889613721</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.2534649117392255</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.1237597992699197</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.6877223847808742</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.1432120661761498</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.1944842849802592</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1789537760458792</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.1095603353333787</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.08597714217380455</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.04747323205001341</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1596078190766726</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.3847097627346834</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.1702805339153082</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.06233851106537968</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.082032544214123</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.3183836316250935</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.119524856489234</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8282427066654987</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.5749851995926358</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.190939367763931</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.9239411341531745</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.7925017786461021</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.3655235379265618</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1.460869470353472</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>1.34558655086126</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.6196990768879796</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.3953256821967094</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.108096812220609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
